--- a/Studienergebnisse.xlsx
+++ b/Studienergebnisse.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dominik\Documents\GitHub\master_arbeit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{378850E8-ABB8-4DF6-9029-DDB56B7C8ED6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8FF550C-4B73-4719-81A5-77EF8C6BB96E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4200" yWindow="4200" windowWidth="21600" windowHeight="11835" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="72">
   <si>
     <t>Pre-Test/SoSci-Survey</t>
   </si>
@@ -235,9 +235,6 @@
   </si>
   <si>
     <t>2aTRho</t>
-  </si>
-  <si>
-    <t>1nTGsa</t>
   </si>
   <si>
     <t>Unique Code</t>
@@ -677,13 +674,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N59"/>
+  <dimension ref="A1:N58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H3" sqref="H3"/>
+      <selection pane="bottomRight" activeCell="A60" sqref="A60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -702,7 +699,7 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -746,7 +743,7 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B2" t="s">
         <v>13</v>
@@ -2104,11 +2101,6 @@
       </c>
       <c r="N58">
         <v>-1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>70</v>
       </c>
     </row>
   </sheetData>
